--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H2">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I2">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J2">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N2">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q2">
-        <v>19.942218948842</v>
+        <v>28.83857840882156</v>
       </c>
       <c r="R2">
-        <v>179.479970539578</v>
+        <v>259.547205679394</v>
       </c>
       <c r="S2">
-        <v>0.06393205399257573</v>
+        <v>0.07460424888449296</v>
       </c>
       <c r="T2">
-        <v>0.06393205399257573</v>
+        <v>0.07460424888449295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H3">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I3">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J3">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>102.577454</v>
       </c>
       <c r="O3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q3">
-        <v>133.123275984482</v>
+        <v>201.6802449131836</v>
       </c>
       <c r="R3">
-        <v>1198.109483860338</v>
+        <v>1815.122204218652</v>
       </c>
       <c r="S3">
-        <v>0.4267751993768311</v>
+        <v>0.5217387269681121</v>
       </c>
       <c r="T3">
-        <v>0.4267751993768312</v>
+        <v>0.5217387269681119</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H4">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I4">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J4">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N4">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q4">
-        <v>2.167330054575</v>
+        <v>0.3791792815697778</v>
       </c>
       <c r="R4">
-        <v>19.505970491175</v>
+        <v>3.412613534128</v>
       </c>
       <c r="S4">
-        <v>0.006948166722282777</v>
+        <v>0.000980921635354317</v>
       </c>
       <c r="T4">
-        <v>0.006948166722282778</v>
+        <v>0.0009809216353543167</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H5">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I5">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J5">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N5">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q5">
-        <v>46.93344229812599</v>
+        <v>71.09261755538867</v>
       </c>
       <c r="R5">
-        <v>422.4009806831339</v>
+        <v>639.833557998498</v>
       </c>
       <c r="S5">
-        <v>0.1504622617351949</v>
+        <v>0.1839137581181839</v>
       </c>
       <c r="T5">
-        <v>0.1504622617351949</v>
+        <v>0.1839137581181839</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H6">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I6">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J6">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N6">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O6">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P6">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q6">
-        <v>5.765534649148999</v>
+        <v>0.6202421126702223</v>
       </c>
       <c r="R6">
-        <v>51.889811842341</v>
+        <v>5.582179014032</v>
       </c>
       <c r="S6">
-        <v>0.01848352349510554</v>
+        <v>0.001604541537600149</v>
       </c>
       <c r="T6">
-        <v>0.01848352349510554</v>
+        <v>0.001604541537600148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H7">
         <v>2.388977</v>
       </c>
       <c r="I7">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J7">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N7">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O7">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P7">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q7">
-        <v>4.078879339933112</v>
+        <v>3.893425444400111</v>
       </c>
       <c r="R7">
-        <v>36.709914059398</v>
+        <v>35.040828999601</v>
       </c>
       <c r="S7">
-        <v>0.01307633492836301</v>
+        <v>0.01007213589898702</v>
       </c>
       <c r="T7">
-        <v>0.01307633492836302</v>
+        <v>0.01007213589898701</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H8">
         <v>2.388977</v>
       </c>
       <c r="I8">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J8">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>102.577454</v>
       </c>
       <c r="O8">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P8">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q8">
-        <v>27.22835314717312</v>
+        <v>27.22835314717311</v>
       </c>
       <c r="R8">
-        <v>245.0551783245581</v>
+        <v>245.0551783245579</v>
       </c>
       <c r="S8">
-        <v>0.08729041376988159</v>
+        <v>0.07043866053692825</v>
       </c>
       <c r="T8">
-        <v>0.0872904137698816</v>
+        <v>0.07043866053692821</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H9">
         <v>2.388977</v>
       </c>
       <c r="I9">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J9">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N9">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O9">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P9">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q9">
-        <v>0.4432945904916667</v>
+        <v>0.05119206092355555</v>
       </c>
       <c r="R9">
-        <v>3.989651314425001</v>
+        <v>0.4607285483119999</v>
       </c>
       <c r="S9">
-        <v>0.001421142439897626</v>
+        <v>0.0001324318140759258</v>
       </c>
       <c r="T9">
-        <v>0.001421142439897626</v>
+        <v>0.0001324318140759258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H10">
         <v>2.388977</v>
       </c>
       <c r="I10">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J10">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N10">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O10">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P10">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q10">
-        <v>9.599525942066</v>
+        <v>9.598039202046332</v>
       </c>
       <c r="R10">
-        <v>86.395733478594</v>
+        <v>86.38235281841699</v>
       </c>
       <c r="S10">
-        <v>0.03077478049988676</v>
+        <v>0.02482974352208525</v>
       </c>
       <c r="T10">
-        <v>0.03077478049988677</v>
+        <v>0.02482974352208525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H11">
         <v>2.388977</v>
       </c>
       <c r="I11">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J11">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N11">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O11">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P11">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q11">
-        <v>1.179252931903445</v>
+        <v>0.08373736003644444</v>
       </c>
       <c r="R11">
-        <v>10.613276387131</v>
+        <v>0.7536362403279999</v>
       </c>
       <c r="S11">
-        <v>0.003780525241787705</v>
+        <v>0.0002166252011638106</v>
       </c>
       <c r="T11">
-        <v>0.003780525241787706</v>
+        <v>0.0002166252011638106</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H12">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I12">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J12">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N12">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O12">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P12">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q12">
-        <v>0.9637584887813334</v>
+        <v>0.6311435416605556</v>
       </c>
       <c r="R12">
-        <v>8.673826399032</v>
+        <v>5.680291874945</v>
       </c>
       <c r="S12">
-        <v>0.003089679232718947</v>
+        <v>0.001632743098372737</v>
       </c>
       <c r="T12">
-        <v>0.003089679232718948</v>
+        <v>0.001632743098372738</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H13">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I13">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J13">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>102.577454</v>
       </c>
       <c r="O13">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P13">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q13">
-        <v>6.433521144941334</v>
+        <v>4.413850858145556</v>
       </c>
       <c r="R13">
-        <v>57.90169030447201</v>
+        <v>39.72465772331</v>
       </c>
       <c r="S13">
-        <v>0.02062499776258101</v>
+        <v>0.01141845562884595</v>
       </c>
       <c r="T13">
-        <v>0.02062499776258102</v>
+        <v>0.01141845562884595</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H14">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I14">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J14">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N14">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O14">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P14">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q14">
-        <v>0.1047417413</v>
+        <v>0.008298486537777778</v>
       </c>
       <c r="R14">
-        <v>0.9426756717</v>
+        <v>0.07468637884000001</v>
       </c>
       <c r="S14">
-        <v>0.0003357878417264515</v>
+        <v>2.146785275794342E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003357878417264516</v>
+        <v>2.146785275794342E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H15">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I15">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J15">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N15">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O15">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P15">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q15">
-        <v>2.268178056744</v>
+        <v>1.555889676451667</v>
       </c>
       <c r="R15">
-        <v>20.413602510696</v>
+        <v>14.003007088065</v>
       </c>
       <c r="S15">
-        <v>0.007271471763524755</v>
+        <v>0.004025024361925773</v>
       </c>
       <c r="T15">
-        <v>0.007271471763524755</v>
+        <v>0.004025024361925774</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1290883333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.387265</v>
+      </c>
+      <c r="I16">
+        <v>0.01713280695956549</v>
+      </c>
+      <c r="J16">
+        <v>0.01713280695956549</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.188156</v>
-      </c>
-      <c r="H16">
-        <v>0.564468</v>
-      </c>
-      <c r="I16">
-        <v>0.03221519991877542</v>
-      </c>
-      <c r="J16">
-        <v>0.03221519991877543</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N16">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O16">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P16">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q16">
-        <v>0.2786341366893333</v>
+        <v>0.01357424066222222</v>
       </c>
       <c r="R16">
-        <v>2.507707230204</v>
+        <v>0.12216816596</v>
       </c>
       <c r="S16">
-        <v>0.0008932633182242533</v>
+        <v>3.511601766308471E-05</v>
       </c>
       <c r="T16">
-        <v>0.0008932633182242534</v>
+        <v>3.511601766308471E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H17">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I17">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J17">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N17">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O17">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P17">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q17">
-        <v>3.354657011188445</v>
+        <v>2.432707020631445</v>
       </c>
       <c r="R17">
-        <v>30.191913100696</v>
+        <v>21.894363185683</v>
       </c>
       <c r="S17">
-        <v>0.01075457619415648</v>
+        <v>0.006293315761179297</v>
       </c>
       <c r="T17">
-        <v>0.01075457619415648</v>
+        <v>0.006293315761179294</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H18">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I18">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J18">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>102.577454</v>
       </c>
       <c r="O18">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P18">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q18">
-        <v>22.39384354766845</v>
+        <v>17.01293804319045</v>
       </c>
       <c r="R18">
-        <v>201.544591929016</v>
+        <v>153.116442388714</v>
       </c>
       <c r="S18">
-        <v>0.07179163053336989</v>
+        <v>0.04401179024977134</v>
       </c>
       <c r="T18">
-        <v>0.07179163053336991</v>
+        <v>0.04401179024977131</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H19">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I19">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J19">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N19">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O19">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P19">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q19">
-        <v>0.3645857555666667</v>
+        <v>0.03198604616622222</v>
       </c>
       <c r="R19">
-        <v>3.2812718001</v>
+        <v>0.287874415496</v>
       </c>
       <c r="S19">
-        <v>0.001168812571439832</v>
+        <v>8.27466220833469E-05</v>
       </c>
       <c r="T19">
-        <v>0.001168812571439832</v>
+        <v>8.274662208334687E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H20">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I20">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J20">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N20">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O20">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P20">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q20">
-        <v>7.895089391432</v>
+        <v>5.997088600912333</v>
       </c>
       <c r="R20">
-        <v>71.055804522888</v>
+        <v>53.973797408211</v>
       </c>
       <c r="S20">
-        <v>0.02531058768054255</v>
+        <v>0.01551422834448593</v>
       </c>
       <c r="T20">
-        <v>0.02531058768054256</v>
+        <v>0.01551422834448593</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H21">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I21">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J21">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N21">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O21">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P21">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q21">
-        <v>0.9698715716457778</v>
+        <v>0.05232114151377779</v>
       </c>
       <c r="R21">
-        <v>8.728844144811999</v>
+        <v>0.470890273624</v>
       </c>
       <c r="S21">
-        <v>0.003109276948738079</v>
+        <v>0.0001353527004028962</v>
       </c>
       <c r="T21">
-        <v>0.003109276948738079</v>
+        <v>0.0001353527004028961</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H22">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I22">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J22">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N22">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O22">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P22">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q22">
-        <v>1.576752173014445</v>
+        <v>1.042449030623</v>
       </c>
       <c r="R22">
-        <v>14.19076955713</v>
+        <v>9.382041275607</v>
       </c>
       <c r="S22">
-        <v>0.005054853991758229</v>
+        <v>0.002696773947297173</v>
       </c>
       <c r="T22">
-        <v>0.00505485399175823</v>
+        <v>0.002696773947297172</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H23">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I23">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J23">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>102.577454</v>
       </c>
       <c r="O23">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P23">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q23">
-        <v>10.52552954241445</v>
+        <v>7.290282233234</v>
       </c>
       <c r="R23">
-        <v>94.72976588173002</v>
+        <v>65.61254009910598</v>
       </c>
       <c r="S23">
-        <v>0.03374342267188708</v>
+        <v>0.01885966854732391</v>
       </c>
       <c r="T23">
-        <v>0.03374342267188709</v>
+        <v>0.01885966854732391</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H24">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I24">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J24">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N24">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O24">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P24">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q24">
-        <v>0.1713621930416667</v>
+        <v>0.013706468776</v>
       </c>
       <c r="R24">
-        <v>1.542259737375</v>
+        <v>0.123358218984</v>
       </c>
       <c r="S24">
-        <v>0.0005493639903327901</v>
+        <v>3.545808650468846E-05</v>
       </c>
       <c r="T24">
-        <v>0.0005493639903327903</v>
+        <v>3.545808650468845E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H25">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I25">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J25">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N25">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O25">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P25">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q25">
-        <v>3.71084117171</v>
+        <v>2.569836460191</v>
       </c>
       <c r="R25">
-        <v>33.39757054539</v>
+        <v>23.128528141719</v>
       </c>
       <c r="S25">
-        <v>0.01189645438936537</v>
+        <v>0.006648064136541746</v>
       </c>
       <c r="T25">
-        <v>0.01189645438936537</v>
+        <v>0.006648064136541745</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H26">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I26">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J26">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N26">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O26">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P26">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q26">
-        <v>0.4558579619427778</v>
+        <v>0.022420341944</v>
       </c>
       <c r="R26">
-        <v>4.102721657485</v>
+        <v>0.201783077496</v>
       </c>
       <c r="S26">
-        <v>0.001461418907827382</v>
+        <v>5.800052786076161E-05</v>
       </c>
       <c r="T26">
-        <v>0.001461418907827382</v>
+        <v>5.800052786076158E-05</v>
       </c>
     </row>
   </sheetData>
